--- a/school mockup data/KMUTNB - new/form_student_1-2.xlsx
+++ b/school mockup data/KMUTNB - new/form_student_1-2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VS_code_Project\project_childcare_mobileapp\school mockup data\KMUTNB - new\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F5569BD-58BB-4F67-A26E-4886E20EA46C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10FA3F12-0653-4C97-B923-948C0A072C06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1515" yWindow="1515" windowWidth="21600" windowHeight="14025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1470" yWindow="1470" windowWidth="21600" windowHeight="14025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -315,7 +315,7 @@
     <t>ammy-12@example.com</t>
   </si>
   <si>
-    <t>เฝอรถไฟ by AT Cafe ชาบูสไตล์เวียดนาม 79 33 Bang Rak Noi, เมือง Nonthaburi 11000</t>
+    <t>Patkawin Creation 24/13, Bang Bua Thong District, Nonthaburi 11110</t>
   </si>
 </sst>
 </file>
@@ -758,7 +758,7 @@
   <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
